--- a/data/input/static/metadata_summary_country.xlsx
+++ b/data/input/static/metadata_summary_country.xlsx
@@ -4270,5 +4270,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6356AD7E-93B7-4F61-94CD-F032EC09C1B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B01316A-4678-42E6-B250-D62420ECF7C0}"/>
 </file>
--- a/data/input/static/metadata_summary_country.xlsx
+++ b/data/input/static/metadata_summary_country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalberg\Documents\GitHub\covid19_vaccination_data\data\_input\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/01 Static datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA9F3B-447E-41E4-8E18-4DC786CFDCC4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="275">
   <si>
     <t>indicator</t>
   </si>
@@ -854,13 +853,19 @@
   </si>
   <si>
     <t>WHO</t>
+  </si>
+  <si>
+    <t>who_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO legal status of reporting entity </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,10 +918,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H105" totalsRowShown="0">
-  <autoFilter ref="A1:H105" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H106" totalsRowShown="0">
+  <autoFilter ref="A1:H106" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{17BC83DA-7B1E-48E0-AFF2-9131F1A12296}" name="indicator"/>
     <tableColumn id="2" xr3:uid="{2564B6D3-1653-4CD0-8192-CA07F90F47C6}" name="description" dataDxfId="1"/>
@@ -1279,25 +1287,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07602C46-AF60-4A59-9AEF-A3C5225522E1}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1851,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2371,7 +2379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2449,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2657,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2761,7 +2769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2787,7 +2795,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2813,7 +2821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -2917,7 +2925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -2969,7 +2977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -2995,7 +3003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -3151,7 +3159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3203,7 +3211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -3229,7 +3237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3281,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3307,7 +3315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3333,7 +3341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>218</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -3411,7 +3419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -3437,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>227</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>229</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -3515,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>238</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>240</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>242</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>244</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>246</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>252</v>
       </c>
@@ -3775,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>254</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -3827,7 +3835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>265</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>267</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>270</v>
       </c>
@@ -4006,6 +4014,32 @@
         <v>272</v>
       </c>
       <c r="H105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4018,21 +4052,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -4249,14 +4268,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4627CB4-3356-4239-9CEE-5D697A543E8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0F9EFB-FA02-4183-BFA5-CB4679DC86A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0F9EFB-FA02-4183-BFA5-CB4679DC86A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4627CB4-3356-4239-9CEE-5D697A543E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input/static/metadata_summary_country.xlsx
+++ b/data/input/static/metadata_summary_country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/01 Static datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/brooksd_who_int/Documents/Documents/GitHub/covid19_vaccination_analysis/data/input/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA9F3B-447E-41E4-8E18-4DC786CFDCC4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774A1912-1461-4761-B91E-13910D6E7CA4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="263">
   <si>
     <t>indicator</t>
   </si>
@@ -690,46 +690,10 @@
     <t>COVDP</t>
   </si>
   <si>
-    <t>sec_date</t>
-  </si>
-  <si>
     <t>Supply secured</t>
   </si>
   <si>
     <t>IMF-WHO Supply Tracker</t>
-  </si>
-  <si>
-    <t>sec_tobedel</t>
-  </si>
-  <si>
-    <t>Vaccine courses secured and/or expected, not yet delivered, total</t>
-  </si>
-  <si>
-    <t>IMF-WHO Supply Tracker; UNICEF MDB</t>
-  </si>
-  <si>
-    <t>sec_tobedel_per</t>
-  </si>
-  <si>
-    <t>Vaccine courses secured and/or expected, not yet delivered, total, as percentage of total population</t>
-  </si>
-  <si>
-    <t>IMF-WHO Supply Tracker; UNICEF MDB; UNPOP</t>
-  </si>
-  <si>
-    <t>sec_total</t>
-  </si>
-  <si>
-    <t>Vaccine courses secured and/or expected, total</t>
-  </si>
-  <si>
-    <t>sec_total_per</t>
-  </si>
-  <si>
-    <t>Vaccine courses secured and/or expected, total, as percentage of total population</t>
-  </si>
-  <si>
-    <t>IMF-WHO Supply Tracker; UNPOP</t>
   </si>
   <si>
     <t>t10_status</t>
@@ -974,8 +938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H106" totalsRowShown="0">
-  <autoFilter ref="A1:H106" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H101" totalsRowShown="0">
+  <autoFilter ref="A1:H101" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{17BC83DA-7B1E-48E0-AFF2-9131F1A12296}" name="indicator"/>
     <tableColumn id="2" xr3:uid="{2564B6D3-1653-4CD0-8192-CA07F90F47C6}" name="description" dataDxfId="1"/>
@@ -1287,25 +1251,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07602C46-AF60-4A59-9AEF-A3C5225522E1}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1669,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1695,7 +1659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1721,7 +1685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1755,7 +1719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1781,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1807,7 +1771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1833,7 +1797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1859,7 +1823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1885,7 +1849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1911,7 +1875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1937,7 +1901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1963,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1989,7 +1953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2015,7 +1979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2041,7 +2005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2067,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2093,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2119,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2145,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2171,7 +2135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2197,7 +2161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2223,7 +2187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2249,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -2275,7 +2239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2327,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -2353,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2379,7 +2343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -2405,7 +2369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -2431,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2457,7 +2421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2483,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -2509,7 +2473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2535,7 +2499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2561,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -2587,7 +2551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -2613,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -2639,7 +2603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2665,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -2691,7 +2655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -2717,7 +2681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -2743,7 +2707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2769,7 +2733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2795,7 +2759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2821,7 +2785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2847,7 +2811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2873,7 +2837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -2899,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -2925,7 +2889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -2951,7 +2915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -2977,7 +2941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -3003,7 +2967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -3029,7 +2993,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -3055,7 +3019,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -3081,7 +3045,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -3107,7 +3071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -3133,7 +3097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -3159,7 +3123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3185,7 +3149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3211,7 +3175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -3237,7 +3201,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3263,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3289,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3315,7 +3279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3341,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3367,41 +3331,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -3410,16 +3374,16 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G82" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -3427,172 +3391,172 @@
         <v>225</v>
       </c>
       <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>175</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
         <v>219</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s">
-        <v>226</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
         <v>107</v>
       </c>
-      <c r="G84" t="s">
-        <v>220</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>229</v>
-      </c>
-      <c r="B85" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s">
-        <v>231</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" t="s">
-        <v>83</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="G88" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>236</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>237</v>
-      </c>
-      <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s">
-        <v>65</v>
-      </c>
-      <c r="G88" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>238</v>
-      </c>
-      <c r="B89" t="s">
-        <v>239</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
         <v>83</v>
@@ -3601,41 +3565,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>240</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>241</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -3647,21 +3611,21 @@
         <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -3673,21 +3637,21 @@
         <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -3699,44 +3663,44 @@
         <v>107</v>
       </c>
       <c r="G93" t="s">
+        <v>219</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" t="s">
         <v>186</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" t="s">
-        <v>70</v>
-      </c>
-      <c r="D94" t="s">
-        <v>64</v>
-      </c>
-      <c r="E94" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" t="s">
-        <v>83</v>
-      </c>
-      <c r="H94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>250</v>
-      </c>
-      <c r="B95" t="s">
-        <v>251</v>
       </c>
       <c r="C95" t="s">
         <v>70</v>
@@ -3748,7 +3712,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
         <v>83</v>
@@ -3757,289 +3721,159 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>253</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>44</v>
-      </c>
-      <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B98" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>255</v>
       </c>
-      <c r="C97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" t="s">
-        <v>104</v>
-      </c>
-      <c r="H97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
         <v>256</v>
-      </c>
-      <c r="B98" t="s">
-        <v>257</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" t="s">
-        <v>220</v>
-      </c>
-      <c r="H98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>258</v>
-      </c>
-      <c r="B99" t="s">
-        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
         <v>259</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" t="s">
         <v>260</v>
       </c>
-      <c r="C100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" t="s">
-        <v>127</v>
-      </c>
-      <c r="G100" t="s">
-        <v>83</v>
-      </c>
       <c r="H100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C101" t="s">
-        <v>70</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="C101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G101" t="s">
-        <v>83</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>263</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" t="s">
-        <v>83</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>265</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" t="s">
-        <v>175</v>
-      </c>
-      <c r="G103" t="s">
-        <v>83</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" t="s">
-        <v>63</v>
-      </c>
-      <c r="D104" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" t="s">
-        <v>65</v>
-      </c>
-      <c r="G104" t="s">
-        <v>269</v>
-      </c>
-      <c r="H104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G105" t="s">
-        <v>272</v>
-      </c>
-      <c r="H105" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H106" s="3" t="s">
+      <c r="G101" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4052,6 +3886,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -4268,12 +4108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4284,6 +4118,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0F9EFB-FA02-4183-BFA5-CB4679DC86A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4302,15 +4145,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4627CB4-3356-4239-9CEE-5D697A543E8C}">
   <ds:schemaRefs>

--- a/data/input/static/metadata_summary_country.xlsx
+++ b/data/input/static/metadata_summary_country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/brooksd_who_int/Documents/Documents/GitHub/covid19_vaccination_analysis/data/input/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/01 Static datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774A1912-1461-4761-B91E-13910D6E7CA4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA9F3B-447E-41E4-8E18-4DC786CFDCC4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="275">
   <si>
     <t>indicator</t>
   </si>
@@ -690,10 +690,46 @@
     <t>COVDP</t>
   </si>
   <si>
+    <t>sec_date</t>
+  </si>
+  <si>
     <t>Supply secured</t>
   </si>
   <si>
     <t>IMF-WHO Supply Tracker</t>
+  </si>
+  <si>
+    <t>sec_tobedel</t>
+  </si>
+  <si>
+    <t>Vaccine courses secured and/or expected, not yet delivered, total</t>
+  </si>
+  <si>
+    <t>IMF-WHO Supply Tracker; UNICEF MDB</t>
+  </si>
+  <si>
+    <t>sec_tobedel_per</t>
+  </si>
+  <si>
+    <t>Vaccine courses secured and/or expected, not yet delivered, total, as percentage of total population</t>
+  </si>
+  <si>
+    <t>IMF-WHO Supply Tracker; UNICEF MDB; UNPOP</t>
+  </si>
+  <si>
+    <t>sec_total</t>
+  </si>
+  <si>
+    <t>Vaccine courses secured and/or expected, total</t>
+  </si>
+  <si>
+    <t>sec_total_per</t>
+  </si>
+  <si>
+    <t>Vaccine courses secured and/or expected, total, as percentage of total population</t>
+  </si>
+  <si>
+    <t>IMF-WHO Supply Tracker; UNPOP</t>
   </si>
   <si>
     <t>t10_status</t>
@@ -938,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H101" totalsRowShown="0">
-  <autoFilter ref="A1:H101" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H106" totalsRowShown="0">
+  <autoFilter ref="A1:H106" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{17BC83DA-7B1E-48E0-AFF2-9131F1A12296}" name="indicator"/>
     <tableColumn id="2" xr3:uid="{2564B6D3-1653-4CD0-8192-CA07F90F47C6}" name="description" dataDxfId="1"/>
@@ -1251,25 +1287,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07602C46-AF60-4A59-9AEF-A3C5225522E1}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1555,7 +1591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1607,7 +1643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1633,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1659,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1685,7 +1721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1693,7 +1729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1719,7 +1755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1797,7 +1833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1823,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1849,7 +1885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1901,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1927,7 +1963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1953,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1979,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2005,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2031,7 +2067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2057,7 +2093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2083,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2109,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2135,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2161,7 +2197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2213,7 +2249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -2239,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2265,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2291,7 +2327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -2317,7 +2353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2343,7 +2379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -2369,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -2395,7 +2431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2447,7 +2483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -2473,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2525,7 +2561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -2551,7 +2587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -2577,7 +2613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -2603,7 +2639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2629,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -2655,7 +2691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -2681,7 +2717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -2707,7 +2743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2733,7 +2769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2759,7 +2795,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2785,7 +2821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2811,7 +2847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2837,7 +2873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -2889,7 +2925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -2915,7 +2951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -2941,7 +2977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -2967,7 +3003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -2993,7 +3029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -3019,7 +3055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -3045,7 +3081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -3071,7 +3107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -3097,7 +3133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -3123,7 +3159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3149,7 +3185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3175,7 +3211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -3201,7 +3237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3227,7 +3263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3279,7 +3315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3305,7 +3341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3331,59 +3367,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
         <v>220</v>
       </c>
-      <c r="B81" t="s">
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>221</v>
       </c>
-      <c r="C81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" t="s">
-        <v>83</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>222</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
         <v>223</v>
       </c>
-      <c r="C82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" t="s">
-        <v>175</v>
-      </c>
-      <c r="G82" t="s">
-        <v>83</v>
-      </c>
       <c r="H82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -3391,172 +3427,172 @@
         <v>225</v>
       </c>
       <c r="C83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" t="s">
+        <v>220</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s">
+        <v>231</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
         <v>70</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D86" t="s">
         <v>64</v>
       </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
         <v>65</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G86" t="s">
         <v>83</v>
       </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" t="s">
-        <v>227</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
         <v>70</v>
       </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
         <v>175</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G87" t="s">
         <v>83</v>
       </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>219</v>
-      </c>
       <c r="H87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="G89" t="s">
         <v>83</v>
@@ -3565,15 +3601,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -3582,24 +3618,24 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="G90" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -3611,21 +3647,21 @@
         <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -3637,21 +3673,21 @@
         <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -3663,44 +3699,44 @@
         <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="H94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>247</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
       </c>
       <c r="C95" t="s">
         <v>70</v>
@@ -3712,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="G95" t="s">
         <v>83</v>
@@ -3721,15 +3757,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="B96" t="s">
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -3738,50 +3774,50 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>251</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="B97" t="s">
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G97" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>253</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="B98" t="s">
+        <v>257</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -3790,90 +3826,220 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
       </c>
       <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" t="s">
         <v>64</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F104" t="s">
         <v>65</v>
       </c>
-      <c r="G99" t="s">
-        <v>257</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G104" t="s">
+        <v>269</v>
+      </c>
+      <c r="H104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>258</v>
-      </c>
-      <c r="B100" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" t="s">
         <v>63</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D105" t="s">
         <v>64</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F105" t="s">
         <v>65</v>
       </c>
-      <c r="G100" t="s">
-        <v>260</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G105" t="s">
+        <v>272</v>
+      </c>
+      <c r="H105" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C101" s="5" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H101" s="3" t="s">
+      <c r="G106" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3886,12 +4052,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -4108,6 +4268,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4118,15 +4284,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0F9EFB-FA02-4183-BFA5-CB4679DC86A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4145,6 +4302,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4627CB4-3356-4239-9CEE-5D697A543E8C}">
   <ds:schemaRefs>

--- a/data/input/static/metadata_summary_country.xlsx
+++ b/data/input/static/metadata_summary_country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/01 Static datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAA9F3B-447E-41E4-8E18-4DC786CFDCC4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{08F41732-DA58-49D8-A744-2F046D673DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E356F9-CB67-442F-912E-DA8B134F78A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7668904-28FE-4CEA-A556-9FF33A6F2EDC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="277">
   <si>
     <t>indicator</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t xml:space="preserve">WHO legal status of reporting entity </t>
+  </si>
+  <si>
+    <t>adm_fv_60p_adjust</t>
+  </si>
+  <si>
+    <t>Older adults with a complete primary series, capped to 100% of older adult population according to country older adult definition</t>
   </si>
 </sst>
 </file>
@@ -918,13 +924,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H106" totalsRowShown="0">
-  <autoFilter ref="A1:H106" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}" name="Table1" displayName="Table1" ref="A1:H107" totalsRowShown="0">
+  <autoFilter ref="A1:H107" xr:uid="{8C9D72A3-FBB0-4A6C-9AD4-07FF5629FFA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{17BC83DA-7B1E-48E0-AFF2-9131F1A12296}" name="indicator"/>
     <tableColumn id="2" xr3:uid="{2564B6D3-1653-4CD0-8192-CA07F90F47C6}" name="description" dataDxfId="1"/>
@@ -1287,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07602C46-AF60-4A59-9AEF-A3C5225522E1}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,12 +1653,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
@@ -1663,18 +1671,18 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1683,24 +1691,24 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1723,44 +1731,44 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1769,24 +1777,24 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1795,24 +1803,24 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1835,10 +1843,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1850,73 +1858,73 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
@@ -1939,10 +1947,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -1965,10 +1973,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
@@ -1983,7 +1991,7 @@
         <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1991,10 +1999,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
@@ -2006,21 +2014,21 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>70</v>
@@ -2043,10 +2051,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
@@ -2058,21 +2066,21 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
@@ -2084,21 +2092,21 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
@@ -2121,10 +2129,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
@@ -2147,10 +2155,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
@@ -2162,21 +2170,21 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -2199,62 +2207,62 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>103</v>
@@ -2266,10 +2274,10 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -2277,10 +2285,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
@@ -2292,7 +2300,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>108</v>
@@ -2303,25 +2311,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -2329,22 +2337,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>104</v>
@@ -2355,10 +2363,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
@@ -2370,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
         <v>104</v>
@@ -2381,10 +2389,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
@@ -2393,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -2407,25 +2415,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
@@ -2433,10 +2441,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
         <v>121</v>
@@ -2448,7 +2456,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2459,10 +2467,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>121</v>
@@ -2474,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2485,10 +2493,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
@@ -2500,7 +2508,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2511,22 +2519,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -2537,22 +2545,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2563,10 +2571,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>121</v>
@@ -2578,10 +2586,10 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
         <v>15</v>
@@ -2589,10 +2597,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>121</v>
@@ -2615,25 +2623,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -2641,10 +2649,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>141</v>
@@ -2667,25 +2675,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -2693,10 +2701,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
         <v>147</v>
@@ -2705,13 +2713,13 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -2719,42 +2727,42 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2763,7 +2771,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H57" t="s">
         <v>67</v>
@@ -2771,62 +2779,62 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H58" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
         <v>70</v>
@@ -2838,7 +2846,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
         <v>83</v>
@@ -2849,16 +2857,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
         <v>44</v>
@@ -2875,36 +2883,36 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2913,50 +2921,50 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
@@ -2979,10 +2987,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
         <v>178</v>
@@ -3005,36 +3013,36 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H67" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -3057,10 +3065,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -3083,10 +3091,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -3095,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -3109,10 +3117,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
         <v>63</v>
@@ -3121,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -3135,10 +3143,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
         <v>63</v>
@@ -3153,18 +3161,18 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -3179,18 +3187,18 @@
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -3205,18 +3213,18 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -3231,44 +3239,44 @@
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
         <v>141</v>
@@ -3280,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
         <v>142</v>
@@ -3291,10 +3299,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
         <v>141</v>
@@ -3306,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="G78" t="s">
         <v>142</v>
@@ -3317,10 +3325,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
         <v>141</v>
@@ -3332,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="G79" t="s">
         <v>142</v>
@@ -3343,25 +3351,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
@@ -3369,13 +3377,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -3387,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
@@ -3395,25 +3403,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
         <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
@@ -3421,10 +3429,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
         <v>219</v>
@@ -3436,10 +3444,10 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -3447,10 +3455,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
         <v>219</v>
@@ -3459,13 +3467,13 @@
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H84" t="s">
         <v>15</v>
@@ -3473,10 +3481,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
         <v>219</v>
@@ -3485,13 +3493,13 @@
         <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
@@ -3499,25 +3507,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
@@ -3525,22 +3533,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
         <v>83</v>
@@ -3551,22 +3559,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s">
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="G88" t="s">
         <v>83</v>
@@ -3577,22 +3585,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
         <v>83</v>
@@ -3603,13 +3611,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -3618,10 +3626,10 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -3629,13 +3637,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -3647,7 +3655,7 @@
         <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -3655,13 +3663,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -3673,7 +3681,7 @@
         <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -3681,13 +3689,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -3699,56 +3707,56 @@
         <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H93" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G94" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
         <v>70</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E95" t="s">
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G95" t="s">
         <v>83</v>
@@ -3759,13 +3767,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -3774,10 +3782,10 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
@@ -3785,13 +3793,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -3803,7 +3811,7 @@
         <v>107</v>
       </c>
       <c r="G97" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -3811,13 +3819,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -3829,7 +3837,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
@@ -3837,13 +3845,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -3855,21 +3863,21 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>259</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
@@ -3878,21 +3886,21 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G100" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C101" t="s">
         <v>70</v>
@@ -3904,7 +3912,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
         <v>83</v>
@@ -3915,16 +3923,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" t="s">
         <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
         <v>44</v>
@@ -3941,22 +3949,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
         <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E103" t="s">
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G103" t="s">
         <v>83</v>
@@ -3967,36 +3975,36 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="G104" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -4011,35 +4019,61 @@
         <v>65</v>
       </c>
       <c r="G105" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H105" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
+        <v>270</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" t="s">
+        <v>272</v>
+      </c>
+      <c r="H106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4052,6 +4086,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -4268,12 +4308,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4284,6 +4318,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0F9EFB-FA02-4183-BFA5-CB4679DC86A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4302,15 +4345,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9666D219-5436-480B-874A-B0985F4B1352}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4627CB4-3356-4239-9CEE-5D697A543E8C}">
   <ds:schemaRefs>
